--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3203597-8E27-4EE3-B5F3-1EA374B9840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F287620-109A-6B48-837F-D09F9510AE04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Project Start:</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -237,9 +234,6 @@
     <t>Dialog Box Buttons</t>
   </si>
   <si>
-    <t>Dialog Box Progress Bar</t>
-  </si>
-  <si>
     <t>Github</t>
   </si>
   <si>
@@ -256,6 +250,9 @@
   </si>
   <si>
     <t>U can add it as there will always be a bottom row just copy +paste and shift rows down or u can ask me to add it for u</t>
+  </si>
+  <si>
+    <t>Dialog Box/Progress Bar</t>
   </si>
 </sst>
 </file>
@@ -263,13 +260,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,7 +1051,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1063,10 +1060,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -1103,13 +1100,13 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,10 +1123,10 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,10 +1138,10 @@
     <xf numFmtId="9" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,10 +1153,10 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,10 +1168,10 @@
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,16 +1203,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="11" applyFill="1">
@@ -1258,25 +1255,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,6 +1396,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1429,403 +1426,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -2402,15 +2009,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="95"/>
-      <tableStyleElement type="headerRow" dxfId="94"/>
-      <tableStyleElement type="totalRow" dxfId="93"/>
-      <tableStyleElement type="firstColumn" dxfId="92"/>
-      <tableStyleElement type="lastColumn" dxfId="91"/>
-      <tableStyleElement type="firstRowStripe" dxfId="90"/>
-      <tableStyleElement type="secondRowStripe" dxfId="89"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="88"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="87"/>
+      <tableStyleElement type="wholeTable" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="55"/>
+      <tableStyleElement type="totalRow" dxfId="54"/>
+      <tableStyleElement type="firstColumn" dxfId="53"/>
+      <tableStyleElement type="lastColumn" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="49"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2769,37 +2376,37 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB10" sqref="AB10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="69" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="28" width="4.7109375" customWidth="1"/>
-    <col min="29" max="29" width="4.7109375" style="90" customWidth="1"/>
-    <col min="30" max="50" width="4.7109375" customWidth="1"/>
-    <col min="51" max="51" width="4.42578125" customWidth="1"/>
-    <col min="52" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="83" customWidth="1"/>
+    <col min="30" max="50" width="4.6640625" customWidth="1"/>
+    <col min="51" max="51" width="4.5" customWidth="1"/>
+    <col min="52" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="30" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2808,253 +2415,215 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="30" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="121">
         <f ca="1">TODAY()-21</f>
-        <v>44276</v>
-      </c>
-      <c r="F3" s="70"/>
+        <v>44292</v>
+      </c>
+      <c r="F3" s="121"/>
     </row>
-    <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="30" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="118">
         <f ca="1">I5</f>
-        <v>44277</v>
-      </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="67">
+        <v>44291</v>
+      </c>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="118">
         <f ca="1">P5</f>
-        <v>44284</v>
-      </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="67">
+        <v>44298</v>
+      </c>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="118">
         <f ca="1">W5</f>
-        <v>44291</v>
-      </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="67">
+        <v>44305</v>
+      </c>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="118">
         <f ca="1">AD5</f>
-        <v>44298</v>
-      </c>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="67">
-        <f ca="1">AD5+7</f>
-        <v>44305</v>
-      </c>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="69"/>
+        <v>44312</v>
+      </c>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="120"/>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44278</v>
+        <v>44292</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AJ5" ca="1" si="0">J5+1</f>
-        <v>44279</v>
+        <v>44293</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44281</v>
+        <v>44295</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44296</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44297</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44284</v>
+        <v>44298</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44285</v>
+        <v>44299</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44286</v>
+        <v>44300</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44287</v>
+        <v>44301</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44302</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44303</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44304</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44292</v>
+        <v>44306</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44307</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44309</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44310</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44311</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44314</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44317</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
-      </c>
-      <c r="AK5" s="11">
-        <f ca="1">AJ5+1</f>
-        <v>44305</v>
-      </c>
-      <c r="AL5" s="10">
-        <f ca="1">AK5+1</f>
-        <v>44306</v>
-      </c>
-      <c r="AM5" s="10">
-        <f t="shared" ref="AM5" ca="1" si="1">AL5+1</f>
-        <v>44307</v>
-      </c>
-      <c r="AN5" s="10">
-        <f t="shared" ref="AN5" ca="1" si="2">AM5+1</f>
-        <v>44308</v>
-      </c>
-      <c r="AO5" s="10">
-        <f t="shared" ref="AO5" ca="1" si="3">AN5+1</f>
-        <v>44309</v>
-      </c>
-      <c r="AP5" s="10">
-        <f t="shared" ref="AP5" ca="1" si="4">AO5+1</f>
-        <v>44310</v>
-      </c>
-      <c r="AQ5" s="12">
-        <f t="shared" ref="AQ5" ca="1" si="5">AP5+1</f>
-        <v>44311</v>
+        <v>44318</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -3076,149 +2645,121 @@
         <v>5</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="6">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" ca="1" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AJ6" ca="1" si="7">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AJ6" ca="1" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="88" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AB6" s="81" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="89" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AC6" s="82" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="87" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AD6" s="80" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
-        <f t="shared" ref="AK6:AQ6" ca="1" si="8">LEFT(TEXT(AK5,"ddd"),1)</f>
-        <v>M</v>
-      </c>
-      <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
-      </c>
-      <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>W</v>
-      </c>
-      <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>T</v>
-      </c>
-      <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>F</v>
-      </c>
-      <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>S</v>
-      </c>
-      <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>S</v>
-      </c>
     </row>
-    <row r="7" spans="1:43" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="44"/>
       <c r="E7"/>
@@ -3246,36 +2787,29 @@
       <c r="Z7" s="37"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="37"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="118"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="111"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="37"/>
       <c r="AG7" s="37"/>
       <c r="AH7" s="37"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
     </row>
-    <row r="8" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="81"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H33" si="9">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="37"/>
@@ -3297,48 +2831,41 @@
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="86"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="79"/>
       <c r="AF8" s="37"/>
       <c r="AG8" s="37"/>
       <c r="AH8" s="37"/>
       <c r="AI8" s="37"/>
       <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
     </row>
-    <row r="9" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="19">
         <f ca="1">Project_Start</f>
-        <v>44276</v>
-      </c>
-      <c r="F9" s="20">
-        <f ca="1">AO5</f>
-        <v>44309</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="16">
-        <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>44292</v>
+      </c>
+      <c r="F9" s="20" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
@@ -3359,47 +2886,40 @@
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="86"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="79"/>
       <c r="AF9" s="37"/>
       <c r="AG9" s="37"/>
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
     </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
       </c>
       <c r="E10" s="47">
         <f ca="1">Project_Start</f>
-        <v>44276</v>
+        <v>44292</v>
       </c>
       <c r="F10" s="47">
         <f ca="1">E10+9</f>
-        <v>44285</v>
-      </c>
-      <c r="G10" s="74"/>
+        <v>44301</v>
+      </c>
+      <c r="G10" s="67"/>
       <c r="H10" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="I10" s="37"/>
@@ -3419,47 +2939,40 @@
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
       <c r="AG10" s="37"/>
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
     </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="40"/>
       <c r="B11" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
       </c>
       <c r="E11" s="47">
-        <f ca="1">F10</f>
-        <v>44285</v>
+        <f ca="1">Q5</f>
+        <v>44299</v>
       </c>
       <c r="F11" s="47">
         <f ca="1">E11+2</f>
-        <v>44287</v>
-      </c>
-      <c r="G11" s="74"/>
+        <v>44301</v>
+      </c>
+      <c r="G11" s="67"/>
       <c r="H11" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I11" s="37"/>
@@ -3478,48 +2991,41 @@
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="86"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="79"/>
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
     </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="40"/>
       <c r="B12" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
       </c>
       <c r="E12" s="47">
         <f ca="1">F11</f>
-        <v>44287</v>
+        <v>44301</v>
       </c>
       <c r="F12" s="47">
         <f ca="1">E12+4</f>
-        <v>44291</v>
-      </c>
-      <c r="G12" s="74"/>
+        <v>44305</v>
+      </c>
+      <c r="G12" s="67"/>
       <c r="H12" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I12" s="37"/>
@@ -3538,48 +3044,41 @@
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="99"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="92"/>
       <c r="AA12" s="37"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="86"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="79"/>
       <c r="AH12" s="37"/>
       <c r="AI12" s="37"/>
       <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="40"/>
       <c r="B13" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
       </c>
       <c r="E13" s="47">
         <f ca="1">Project_Start</f>
-        <v>44276</v>
+        <v>44292</v>
       </c>
       <c r="F13" s="47">
         <f ca="1">E13+10</f>
-        <v>44286</v>
-      </c>
-      <c r="G13" s="74"/>
+        <v>44302</v>
+      </c>
+      <c r="G13" s="67"/>
       <c r="H13" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="I13" s="37"/>
@@ -3598,50 +3097,43 @@
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="99"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="92"/>
       <c r="AA13" s="37"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="86"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="79"/>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
       <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
     </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="21">
         <v>1</v>
       </c>
       <c r="E14" s="47">
         <f ca="1">Project_Start</f>
-        <v>44276</v>
+        <v>44292</v>
       </c>
       <c r="F14" s="47">
         <f ca="1">E14+9</f>
-        <v>44285</v>
-      </c>
-      <c r="G14" s="74"/>
+        <v>44301</v>
+      </c>
+      <c r="G14" s="67"/>
       <c r="H14" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="I14" s="37"/>
@@ -3660,38 +3152,31 @@
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="86"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="79"/>
       <c r="AH14" s="37"/>
       <c r="AI14" s="37"/>
       <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
     </row>
-    <row r="15" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="41"/>
       <c r="B15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="80"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="37"/>
@@ -3710,48 +3195,41 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="95"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="88"/>
       <c r="AH15" s="37"/>
       <c r="AI15" s="37"/>
       <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
     </row>
-    <row r="16" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="26">
         <v>1</v>
       </c>
       <c r="E16" s="48">
         <f ca="1">P5</f>
-        <v>44284</v>
+        <v>44298</v>
       </c>
       <c r="F16" s="48">
         <f ca="1">P5</f>
-        <v>44284</v>
-      </c>
-      <c r="G16" s="75"/>
+        <v>44298</v>
+      </c>
+      <c r="G16" s="68"/>
       <c r="H16" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="37"/>
@@ -3770,48 +3248,41 @@
       <c r="V16" s="38"/>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="84"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="77"/>
       <c r="AI16" s="37"/>
       <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
     </row>
-    <row r="17" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="40"/>
       <c r="B17" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="26">
         <v>1</v>
       </c>
       <c r="E17" s="48">
         <f ca="1">P5+3</f>
-        <v>44287</v>
+        <v>44301</v>
       </c>
       <c r="F17" s="48">
         <f ca="1">E17+5</f>
-        <v>44292</v>
-      </c>
-      <c r="G17" s="75"/>
+        <v>44306</v>
+      </c>
+      <c r="G17" s="68"/>
       <c r="H17" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="37"/>
@@ -3831,46 +3302,39 @@
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="86"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="79"/>
       <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
     </row>
-    <row r="18" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="40"/>
       <c r="B18" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="48">
-        <f ca="1">F17</f>
-        <v>44292</v>
+        <f ca="1">(F17-3)</f>
+        <v>44303</v>
       </c>
       <c r="F18" s="48">
         <f ca="1">E18+7</f>
-        <v>44299</v>
-      </c>
-      <c r="G18" s="75"/>
+        <v>44310</v>
+      </c>
+      <c r="G18" s="68"/>
       <c r="H18" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
       <c r="I18" s="37"/>
@@ -3897,40 +3361,33 @@
       <c r="AD18" s="37"/>
       <c r="AE18" s="37"/>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="86"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="79"/>
       <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
     </row>
-    <row r="19" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="40"/>
       <c r="B19" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="26">
         <v>1</v>
       </c>
       <c r="E19" s="48">
         <f ca="1">E18</f>
-        <v>44292</v>
+        <v>44303</v>
       </c>
       <c r="F19" s="48">
         <f ca="1">E19+4</f>
-        <v>44296</v>
-      </c>
-      <c r="G19" s="75"/>
+        <v>44307</v>
+      </c>
+      <c r="G19" s="68"/>
       <c r="H19" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I19" s="37"/>
@@ -3957,42 +3414,35 @@
       <c r="AE19" s="37"/>
       <c r="AF19" s="37"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="83"/>
+      <c r="AH19" s="76"/>
       <c r="AI19" s="37"/>
       <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
     </row>
-    <row r="20" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="26">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="48">
         <f ca="1">W5</f>
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="F20" s="48">
-        <f ca="1">E20+12</f>
-        <v>44303</v>
-      </c>
-      <c r="G20" s="75"/>
+        <f ca="1">E20+6</f>
+        <v>44311</v>
+      </c>
+      <c r="G20" s="68"/>
       <c r="H20" s="16">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
@@ -4017,41 +3467,34 @@
       <c r="AC20" s="37"/>
       <c r="AD20" s="37"/>
       <c r="AE20" s="37"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
     </row>
-    <row r="21" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="40"/>
       <c r="B21" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="26">
         <v>1</v>
       </c>
       <c r="E21" s="48">
         <f ca="1">X5</f>
-        <v>44292</v>
+        <v>44306</v>
       </c>
       <c r="F21" s="48">
         <f ca="1">X5+3</f>
-        <v>44295</v>
-      </c>
-      <c r="G21" s="75"/>
+        <v>44309</v>
+      </c>
+      <c r="G21" s="68"/>
       <c r="H21" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="I21" s="37"/>
@@ -4082,36 +3525,29 @@
       <c r="AH21" s="37"/>
       <c r="AI21" s="37"/>
       <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
     </row>
-    <row r="22" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="40"/>
       <c r="B22" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="26">
         <v>1</v>
       </c>
       <c r="E22" s="48">
         <f ca="1">Y5</f>
-        <v>44293</v>
+        <v>44307</v>
       </c>
       <c r="F22" s="48">
         <f ca="1">Y5</f>
-        <v>44293</v>
-      </c>
-      <c r="G22" s="75"/>
+        <v>44307</v>
+      </c>
+      <c r="G22" s="68"/>
       <c r="H22" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" s="37"/>
@@ -4142,36 +3578,29 @@
       <c r="AH22" s="37"/>
       <c r="AI22" s="37"/>
       <c r="AJ22" s="37"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
     </row>
-    <row r="23" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="40"/>
       <c r="B23" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
       </c>
       <c r="E23" s="48">
         <f ca="1">P5</f>
-        <v>44284</v>
+        <v>44298</v>
       </c>
       <c r="F23" s="48">
         <f ca="1">E23+13</f>
-        <v>44297</v>
-      </c>
-      <c r="G23" s="75"/>
+        <v>44311</v>
+      </c>
+      <c r="G23" s="68"/>
       <c r="H23" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="I23" s="37"/>
@@ -4194,7 +3623,7 @@
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
-      <c r="AC23" s="82"/>
+      <c r="AC23" s="75"/>
       <c r="AD23" s="37"/>
       <c r="AE23" s="37"/>
       <c r="AF23" s="37"/>
@@ -4202,26 +3631,19 @@
       <c r="AH23" s="37"/>
       <c r="AI23" s="37"/>
       <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
     </row>
-    <row r="24" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="79"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" s="37"/>
@@ -4243,8 +3665,8 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="120"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="113"/>
       <c r="AD24" s="37"/>
       <c r="AE24" s="37"/>
       <c r="AF24" s="37"/>
@@ -4252,36 +3674,29 @@
       <c r="AH24" s="37"/>
       <c r="AI24" s="37"/>
       <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="37"/>
     </row>
-    <row r="25" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="40"/>
       <c r="B25" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="49">
-        <f ca="1">AD5</f>
-        <v>44298</v>
+        <f ca="1">X5</f>
+        <v>44306</v>
       </c>
       <c r="F25" s="49">
-        <f ca="1">AD5</f>
-        <v>44298</v>
-      </c>
-      <c r="G25" s="76"/>
+        <f ca="1">X5</f>
+        <v>44306</v>
+      </c>
+      <c r="G25" s="69"/>
       <c r="H25" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I25" s="37"/>
@@ -4302,48 +3717,41 @@
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="118"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="111"/>
       <c r="AE25" s="37"/>
       <c r="AF25" s="37"/>
       <c r="AG25" s="37"/>
       <c r="AH25" s="37"/>
       <c r="AI25" s="37"/>
       <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="37"/>
-      <c r="AQ25" s="37"/>
     </row>
-    <row r="26" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="49">
         <f ca="1">F25+1</f>
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="F26" s="49">
         <f ca="1">E26+4</f>
-        <v>44303</v>
-      </c>
-      <c r="G26" s="76"/>
+        <v>44311</v>
+      </c>
+      <c r="G26" s="69"/>
       <c r="H26" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I26" s="37"/>
@@ -4364,46 +3772,39 @@
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="86"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="79"/>
       <c r="AF26" s="37"/>
       <c r="AG26" s="37"/>
       <c r="AH26" s="37"/>
       <c r="AI26" s="37"/>
       <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
     </row>
-    <row r="27" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="40"/>
       <c r="B27" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="49">
         <f ca="1">AB5</f>
-        <v>44296</v>
+        <v>44310</v>
       </c>
       <c r="F27" s="49">
         <f ca="1">E27+3</f>
-        <v>44299</v>
-      </c>
-      <c r="G27" s="76"/>
+        <v>44313</v>
+      </c>
+      <c r="G27" s="69"/>
       <c r="H27" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="I27" s="37"/>
@@ -4425,46 +3826,39 @@
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
       <c r="AE27" s="37"/>
       <c r="AF27" s="37"/>
       <c r="AG27" s="37"/>
       <c r="AH27" s="37"/>
       <c r="AI27" s="37"/>
       <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
     </row>
-    <row r="28" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="40"/>
       <c r="B28" s="61" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="49">
-        <f ca="1">AF5</f>
-        <v>44300</v>
+        <f ca="1">Z5</f>
+        <v>44308</v>
       </c>
       <c r="F28" s="49">
-        <f ca="1">AF5+4</f>
-        <v>44304</v>
-      </c>
-      <c r="G28" s="76"/>
+        <f ca="1">Z5+2</f>
+        <v>44310</v>
+      </c>
+      <c r="G28" s="69"/>
       <c r="H28" s="16">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
@@ -4493,36 +3887,29 @@
       <c r="AH28" s="37"/>
       <c r="AI28" s="37"/>
       <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
     </row>
-    <row r="29" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="40"/>
       <c r="B29" s="61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="49">
-        <f ca="1">AH5</f>
-        <v>44302</v>
+        <f ca="1">AB5</f>
+        <v>44310</v>
       </c>
       <c r="F29" s="49">
         <f ca="1">E29+3</f>
-        <v>44305</v>
-      </c>
-      <c r="G29" s="76"/>
+        <v>44313</v>
+      </c>
+      <c r="G29" s="69"/>
       <c r="H29" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="I29" s="37"/>
@@ -4553,26 +3940,19 @@
       <c r="AH29" s="37"/>
       <c r="AI29" s="37"/>
       <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
     </row>
-    <row r="30" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="40"/>
       <c r="B30" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
       <c r="F30" s="35"/>
-      <c r="G30" s="78"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" s="37"/>
@@ -4594,43 +3974,38 @@
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="102"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="95"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="37"/>
       <c r="AG30" s="37"/>
       <c r="AH30" s="37"/>
       <c r="AI30" s="37"/>
       <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
     </row>
-    <row r="31" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="40"/>
       <c r="B31" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="36">
-        <v>0</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="16" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="50">
+        <f ca="1">Z5</f>
+        <v>44308</v>
+      </c>
+      <c r="F31" s="50">
+        <f ca="1">AA5</f>
+        <v>44309</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
@@ -4651,48 +4026,41 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="86"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="79"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="37"/>
       <c r="AG31" s="37"/>
       <c r="AH31" s="37"/>
       <c r="AI31" s="37"/>
       <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
     </row>
-    <row r="32" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="50">
-        <f ca="1">AI5</f>
-        <v>44303</v>
+        <f ca="1">AA5</f>
+        <v>44309</v>
       </c>
       <c r="F32" s="50">
-        <f ca="1">AQ5</f>
-        <v>44311</v>
-      </c>
-      <c r="G32" s="77"/>
+        <f ca="1">E32+5</f>
+        <v>44314</v>
+      </c>
+      <c r="G32" s="70"/>
       <c r="H32" s="16">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -4714,7 +4082,7 @@
       <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
       <c r="AB32" s="37"/>
-      <c r="AC32" s="83"/>
+      <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
       <c r="AE32" s="37"/>
       <c r="AF32" s="37"/>
@@ -4722,38 +4090,31 @@
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
       <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
     </row>
-    <row r="33" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="50">
-        <f ca="1">AO5</f>
+        <f ca="1">AA5</f>
         <v>44309</v>
       </c>
       <c r="F33" s="50">
-        <f ca="1">AO5</f>
+        <f ca="1">AA5</f>
         <v>44309</v>
       </c>
-      <c r="G33" s="77"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="16">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I33" s="37"/>
@@ -4784,31 +4145,26 @@
       <c r="AH33" s="37"/>
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
     </row>
-    <row r="34" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="30" customHeight="1" thickBot="1">
       <c r="B34" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="E34" s="50">
+        <f>U17</f>
         <v>0</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="77"/>
+      <c r="F34" s="50">
+        <f ca="1">AF5</f>
+        <v>44314</v>
+      </c>
+      <c r="G34" s="70"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
@@ -4837,31 +4193,26 @@
       <c r="AH34" s="37"/>
       <c r="AI34" s="37"/>
       <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
     </row>
-    <row r="35" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="30" customHeight="1" thickBot="1">
       <c r="B35" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="36">
-        <v>0</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="50">
+        <f ca="1">E32</f>
+        <v>44309</v>
+      </c>
+      <c r="F35" s="50">
+        <f ca="1">F32</f>
+        <v>44314</v>
+      </c>
+      <c r="G35" s="70"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
@@ -4890,15 +4241,8 @@
       <c r="AH35" s="37"/>
       <c r="AI35" s="37"/>
       <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
     </row>
-    <row r="36" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="30" customHeight="1">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4906,22 +4250,21 @@
       <c r="F36" s="3"/>
       <c r="AC36"/>
     </row>
-    <row r="37" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="E37"/>
     </row>
-    <row r="39" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="30" customHeight="1">
       <c r="C39" s="14"/>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="30" customHeight="1">
       <c r="C40" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4929,7 +4272,7 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D35 D7 D9:D19">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4943,20 +4286,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:AB24 I26:AB32 I25:AA25 AD5:AI29 AD31:AI32 AE30:AI30">
-    <cfRule type="expression" dxfId="86" priority="130">
+    <cfRule type="expression" dxfId="47" priority="139">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:AB24 I26:AB32 I25:AA25 AD7:AI29 AD31:AI32 AE30:AI30">
-    <cfRule type="expression" dxfId="85" priority="124">
+    <cfRule type="expression" dxfId="46" priority="133">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="134" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4970,7 +4313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4983,73 +4326,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AP32">
-    <cfRule type="expression" dxfId="83" priority="92">
-      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7:AP32">
-    <cfRule type="expression" dxfId="82" priority="90">
-      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="91" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ32">
-    <cfRule type="expression" dxfId="80" priority="93">
-      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7:AQ32">
-    <cfRule type="expression" dxfId="79" priority="94">
-      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="95" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AQ$5,task_start&lt;#REF!)</formula>
+  <conditionalFormatting sqref="I33:AB33 AD33:AI33">
+    <cfRule type="expression" dxfId="44" priority="92">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:AB33 AD33:AI33">
-    <cfRule type="expression" dxfId="77" priority="83">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:AB33 AD33:AI33">
-    <cfRule type="expression" dxfId="76" priority="81">
+    <cfRule type="expression" dxfId="43" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33:AP33">
-    <cfRule type="expression" dxfId="74" priority="77">
-      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33:AP33">
-    <cfRule type="expression" dxfId="73" priority="75">
-      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="76" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ33">
-    <cfRule type="expression" dxfId="71" priority="78">
-      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ33">
-    <cfRule type="expression" dxfId="70" priority="79">
-      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5063,85 +4354,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ8 AJ30:AJ31 AJ10:AJ26 AJ33">
-    <cfRule type="expression" dxfId="68" priority="146">
+    <cfRule type="expression" dxfId="41" priority="155">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AJ8 AJ30:AJ31 AJ10:AJ26 AJ33">
-    <cfRule type="expression" dxfId="67" priority="147">
+    <cfRule type="expression" dxfId="40" priority="156">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="157" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AB34 AD34:AI34">
-    <cfRule type="expression" dxfId="65" priority="70">
+    <cfRule type="expression" dxfId="38" priority="79">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:AB34 AD34:AI34">
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="37" priority="77">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK34:AP34">
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK34:AP34">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ34">
-    <cfRule type="expression" dxfId="59" priority="65">
-      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ34">
-    <cfRule type="expression" dxfId="58" priority="66">
-      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="67" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ34">
-    <cfRule type="expression" dxfId="56" priority="71">
+    <cfRule type="expression" dxfId="35" priority="80">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ34">
-    <cfRule type="expression" dxfId="55" priority="72">
+    <cfRule type="expression" dxfId="34" priority="81">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="82" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5155,172 +4407,146 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="expression" dxfId="50" priority="39">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="expression" dxfId="49" priority="37">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="expression" dxfId="47" priority="36">
-      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="expression" dxfId="46" priority="34">
-      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="expression" dxfId="44" priority="33">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC18">
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="expression" dxfId="37" priority="25">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="expression" dxfId="35" priority="24">
-      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="expression" dxfId="34" priority="22">
-      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="expression" dxfId="28" priority="16">
-      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35:AP35">
-    <cfRule type="expression" dxfId="25" priority="4">
-      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AB35 AD35:AI35">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:AB35 AD35:AI35">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35:AP35">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ35">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ35">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
+  <conditionalFormatting sqref="AC34">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC34">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9 AJ32 AJ27:AJ29">
+    <cfRule type="expression" dxfId="8" priority="158">
+      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9 AJ32 AJ27:AJ29">
+    <cfRule type="expression" dxfId="7" priority="159">
+      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="160" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC35">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
+  <conditionalFormatting sqref="AC35">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+      <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
+      <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -5429,24 +4655,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="95.42578125" customWidth="1"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
